--- a/Love_Babbar_DSA_450_solutions/FINAL450.xlsx
+++ b/Love_Babbar_DSA_450_solutions/FINAL450.xlsx
@@ -1448,7 +1448,7 @@
     <font>
       <name val="Calibri"/>
       <b/>
-      <color indexed="64"/>
+      <color/>
       <sz val="15.000000"/>
       <scheme val="minor"/>
     </font>
